--- a/backlog_fraude.xlsx
+++ b/backlog_fraude.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathisdelaunay/Documents/IMT/MProjet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathisdelaunay/Documents/IMT/MProjet/fraude-gftm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A352762B-5389-8D4B-A2FC-49BE1F7FFD56}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A6322-3500-2D47-BA08-CDB2B739742E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{E3A941B0-7414-3343-B707-7546960CBB92}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Fonctionnalités</t>
   </si>
@@ -42,24 +42,15 @@
     <t xml:space="preserve">Faire la différence entre le projet élève avec le projet modèle. </t>
   </si>
   <si>
-    <t xml:space="preserve">Comparaison des habitudes de développement entre ses propres fichiers. ( Tabulation au début ou espace ). </t>
-  </si>
-  <si>
     <t>Comparaison des noms de variables (Option JAVA).</t>
   </si>
   <si>
-    <t>Export au format CSV.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analyse des anomalies d'écritures sans formatage par le logiciel. ( Trois espaces, etc. ). </t>
   </si>
   <si>
     <t xml:space="preserve">Formatage du code source ( Mettre un espace entre tous les mots, suppression des tabulations et espace en trop etc. ). </t>
   </si>
   <si>
-    <t>IHM.</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -67,6 +58,42 @@
   </si>
   <si>
     <t>Calcul du nombre de mot ordonnés faisant partie d'une chaine de caractere commune avec formatage par le logiciel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etat </t>
+  </si>
+  <si>
+    <t>Filtrage avec suppression des lignes d'importation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHM - Chargement des fichiers avec dezippage </t>
+  </si>
+  <si>
+    <t>IHM - Fenêtre pour choisir les filtres utilisés ( suppression des imports, suppression des espaces, suppression des mot clés java etc.)</t>
+  </si>
+  <si>
+    <t>IHM - Fenêtre permettant de lancer le calcul des algorithmes de detection de fraude.</t>
+  </si>
+  <si>
+    <t>Export au format CSV pour les resultats.</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Pas fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparaison des habitudes de développement entre ses propres fichiers. ( Tabulation au début ou espace, nommage variables et méthodes ). </t>
+  </si>
+  <si>
+    <t>Ajouter un filtre pour enlever le code commun entre tous les élèves.</t>
+  </si>
+  <si>
+    <t>Ne pas prendre en compte les variables avec des noms courts ( x,y etc.) mais plutôt avec des chaines longues et inhabituelles</t>
   </si>
 </sst>
 </file>
@@ -82,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +119,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,9 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09465C06-C4DF-9D45-9018-09B51CF94F8B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +485,7 @@
     <col min="2" max="2" width="119.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -448,10 +496,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,13 +515,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -478,13 +530,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -492,8 +545,9 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -506,13 +560,18 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -520,13 +579,18 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -534,13 +598,18 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -548,22 +617,24 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -571,25 +642,102 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
